--- a/ItemsToImport.xlsx
+++ b/ItemsToImport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Tên món</t>
   </si>
@@ -25,34 +25,19 @@
     <t>Giá bán</t>
   </si>
   <si>
-    <t>Cà phê</t>
-  </si>
-  <si>
-    <t>Thuốc lá</t>
-  </si>
-  <si>
-    <t>Mắm tôm</t>
-  </si>
-  <si>
-    <t>Chuối chiên</t>
-  </si>
-  <si>
-    <t>Nước mắm</t>
-  </si>
-  <si>
     <t>Đơn vị tính</t>
   </si>
   <si>
     <t>Ly</t>
   </si>
   <si>
-    <t>Gói</t>
-  </si>
-  <si>
-    <t>Chai</t>
-  </si>
-  <si>
-    <t>Trái</t>
+    <t>Xoài lắc</t>
+  </si>
+  <si>
+    <t>Dĩa</t>
+  </si>
+  <si>
+    <t>Nước mía</t>
   </si>
 </sst>
 </file>
@@ -394,16 +379,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.875" customWidth="1"/>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -411,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -422,72 +407,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="D2">
-        <v>7000</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
       <c r="C3">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="D3">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>11000</v>
-      </c>
-      <c r="D4">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>3000</v>
-      </c>
-      <c r="D5">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>40000</v>
-      </c>
-      <c r="D6">
-        <v>80000</v>
+        <v>6000</v>
       </c>
     </row>
   </sheetData>
